--- a/posesiones/1381245.xlsx
+++ b/posesiones/1381245.xlsx
@@ -1823,10 +1823,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1917,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1967,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2017,7 +2017,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>5</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2117,7 +2117,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>19</v>
@@ -2167,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2217,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2267,7 +2267,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R12">
         <v>25</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2367,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2464,7 +2464,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R16">
         <v>21</v>
@@ -2514,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2564,7 +2564,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R18">
         <v>18</v>
@@ -2614,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2664,7 +2664,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R20">
         <v>11</v>
@@ -2717,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2767,7 +2767,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R22">
         <v>11</v>
@@ -2820,7 +2820,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R23">
         <v>26</v>
@@ -2870,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2920,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2970,7 +2970,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R26">
         <v>6</v>
@@ -3020,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3064,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3111,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3208,7 +3208,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R31">
         <v>19</v>
@@ -3258,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3308,7 +3308,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R33">
         <v>17</v>
@@ -3358,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3408,7 +3408,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R35">
         <v>16</v>
@@ -3461,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3511,7 +3511,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R37">
         <v>8</v>
@@ -3561,7 +3561,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3611,7 +3611,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R39">
         <v>19</v>
@@ -3664,7 +3664,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R40">
         <v>7</v>
@@ -3717,7 +3717,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R41">
         <v>12</v>
@@ -3770,7 +3770,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R42">
         <v>22</v>
@@ -3823,7 +3823,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R43">
         <v>20</v>
@@ -3876,7 +3876,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R44">
         <v>24</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3973,7 +3973,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4020,7 +4020,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4117,7 +4117,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R49">
         <v>0</v>
@@ -4167,7 +4167,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4214,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4264,7 +4264,7 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R52">
         <v>21</v>
@@ -4317,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4367,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R54">
         <v>17</v>
@@ -4417,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R56">
         <v>12</v>
@@ -4517,7 +4517,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4564,7 +4564,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4611,7 +4611,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4658,7 +4658,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4705,7 +4705,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4752,7 +4752,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R63">
         <v>0</v>
@@ -4855,7 +4855,7 @@
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R64">
         <v>10</v>
@@ -4905,7 +4905,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4955,7 +4955,7 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R66">
         <v>12</v>
@@ -5005,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5055,7 +5055,7 @@
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R68">
         <v>6</v>
@@ -5108,7 +5108,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5155,7 +5155,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5205,7 +5205,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5255,7 +5255,7 @@
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R72">
         <v>12</v>
@@ -5308,7 +5308,7 @@
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R73">
         <v>12</v>
@@ -5361,7 +5361,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5408,7 +5408,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5455,7 +5455,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5502,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5549,7 +5549,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5596,7 +5596,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5643,7 +5643,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5690,7 +5690,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5740,7 +5740,7 @@
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R82">
         <v>16</v>
@@ -5793,7 +5793,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5843,7 +5843,7 @@
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R84">
         <v>25</v>
@@ -5896,7 +5896,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5943,7 +5943,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -5993,7 +5993,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6043,7 +6043,7 @@
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R88">
         <v>18</v>
@@ -6096,7 +6096,7 @@
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R89">
         <v>23</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6196,7 +6196,7 @@
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R91">
         <v>20</v>
@@ -6249,7 +6249,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6299,7 +6299,7 @@
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R93">
         <v>8</v>
@@ -6352,7 +6352,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6402,7 +6402,7 @@
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R95">
         <v>5</v>
@@ -6455,7 +6455,7 @@
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R96">
         <v>27</v>
@@ -6508,7 +6508,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6555,7 +6555,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6605,7 +6605,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6655,7 +6655,7 @@
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R100">
         <v>16</v>
@@ -6705,7 +6705,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6752,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6799,7 +6799,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6846,7 +6846,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6893,7 +6893,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6940,7 +6940,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -6987,7 +6987,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7034,7 +7034,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7081,7 +7081,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7128,7 +7128,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7175,7 +7175,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7225,7 +7225,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7275,7 +7275,7 @@
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R113">
         <v>30</v>
@@ -7325,7 +7325,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7366,10 +7366,10 @@
         <v>1</v>
       </c>
       <c r="P115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q115">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7416,7 +7416,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7463,7 +7463,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7504,10 +7504,10 @@
         <v>1</v>
       </c>
       <c r="P118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q118">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7557,7 +7557,7 @@
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R119">
         <v>23</v>
@@ -7607,7 +7607,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7654,7 +7654,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7701,7 +7701,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7748,7 +7748,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7798,7 +7798,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7845,7 +7845,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7892,7 +7892,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -7939,7 +7939,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -7986,7 +7986,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8033,7 +8033,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8080,7 +8080,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8127,7 +8127,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8177,7 +8177,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8227,7 +8227,7 @@
         <v>1</v>
       </c>
       <c r="Q133">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R133">
         <v>31</v>
@@ -8280,7 +8280,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8327,7 +8327,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8374,7 +8374,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8421,7 +8421,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8468,7 +8468,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8515,7 +8515,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8562,7 +8562,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8609,7 +8609,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8656,7 +8656,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8703,7 +8703,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8753,7 +8753,7 @@
         <v>1</v>
       </c>
       <c r="Q144">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R144">
         <v>21</v>
@@ -8806,7 +8806,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8853,7 +8853,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -8903,7 +8903,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -8953,7 +8953,7 @@
         <v>1</v>
       </c>
       <c r="Q148">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R148">
         <v>26</v>
@@ -9003,7 +9003,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9050,7 +9050,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9097,7 +9097,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9144,7 +9144,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9194,7 +9194,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9244,7 +9244,7 @@
         <v>1</v>
       </c>
       <c r="Q154">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R154">
         <v>20</v>
@@ -9297,7 +9297,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9344,7 +9344,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9391,7 +9391,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9438,7 +9438,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9485,7 +9485,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9535,7 +9535,7 @@
         <v>1</v>
       </c>
       <c r="Q160">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R160">
         <v>21</v>
@@ -9588,7 +9588,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9638,7 +9638,7 @@
         <v>1</v>
       </c>
       <c r="Q162">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R162">
         <v>12</v>
@@ -9685,7 +9685,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9732,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9779,7 +9779,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9829,7 +9829,7 @@
         <v>1</v>
       </c>
       <c r="Q166">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R166">
         <v>24</v>
@@ -9882,7 +9882,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -9932,7 +9932,7 @@
         <v>1</v>
       </c>
       <c r="Q168">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R168">
         <v>14</v>
@@ -9982,7 +9982,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10032,7 +10032,7 @@
         <v>1</v>
       </c>
       <c r="Q170">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R170">
         <v>26</v>
@@ -10085,7 +10085,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10135,7 +10135,7 @@
         <v>1</v>
       </c>
       <c r="Q172">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R172">
         <v>7</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10235,7 +10235,7 @@
         <v>1</v>
       </c>
       <c r="Q174">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R174">
         <v>22</v>
@@ -10285,7 +10285,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10335,7 +10335,7 @@
         <v>1</v>
       </c>
       <c r="Q176">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R176">
         <v>17</v>
@@ -10385,7 +10385,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10429,7 +10429,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10476,7 +10476,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10523,7 +10523,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10573,7 +10573,7 @@
         <v>1</v>
       </c>
       <c r="Q181">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R181">
         <v>14</v>
@@ -10623,7 +10623,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10673,7 +10673,7 @@
         <v>1</v>
       </c>
       <c r="Q183">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R183">
         <v>12</v>
@@ -10726,7 +10726,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10776,7 +10776,7 @@
         <v>1</v>
       </c>
       <c r="Q185">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R185">
         <v>19</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10876,7 +10876,7 @@
         <v>1</v>
       </c>
       <c r="Q187">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R187">
         <v>26</v>
@@ -10926,7 +10926,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -10973,7 +10973,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11020,7 +11020,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11070,7 +11070,7 @@
         <v>1</v>
       </c>
       <c r="Q191">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R191">
         <v>13</v>
@@ -11120,7 +11120,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11170,7 +11170,7 @@
         <v>1</v>
       </c>
       <c r="Q193">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R193">
         <v>6</v>
@@ -11220,7 +11220,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11267,7 +11267,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11317,7 +11317,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11364,7 +11364,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11414,7 +11414,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11464,7 +11464,7 @@
         <v>1</v>
       </c>
       <c r="Q199">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R199">
         <v>10</v>
@@ -11511,7 +11511,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11561,7 +11561,7 @@
         <v>1</v>
       </c>
       <c r="Q201">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R201">
         <v>18</v>
@@ -11614,7 +11614,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11664,7 +11664,7 @@
         <v>1</v>
       </c>
       <c r="Q203">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R203">
         <v>18</v>
@@ -11717,7 +11717,7 @@
         <v>1</v>
       </c>
       <c r="Q204">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R204">
         <v>18</v>
@@ -11770,7 +11770,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11820,7 +11820,7 @@
         <v>1</v>
       </c>
       <c r="Q206">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R206">
         <v>14</v>
@@ -11870,7 +11870,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11917,7 +11917,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -11964,7 +11964,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12011,7 +12011,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12058,7 +12058,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12105,7 +12105,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12152,7 +12152,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12202,7 +12202,7 @@
         <v>1</v>
       </c>
       <c r="Q214">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R214">
         <v>18</v>
@@ -12252,7 +12252,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12302,7 +12302,7 @@
         <v>1</v>
       </c>
       <c r="Q216">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R216">
         <v>17</v>
@@ -12352,7 +12352,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12399,7 +12399,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12446,7 +12446,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12496,7 +12496,7 @@
         <v>1</v>
       </c>
       <c r="Q220">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R220">
         <v>0</v>
@@ -12549,7 +12549,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12596,7 +12596,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12646,7 +12646,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12696,7 +12696,7 @@
         <v>1</v>
       </c>
       <c r="Q224">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R224">
         <v>21</v>
@@ -12749,7 +12749,7 @@
         <v>1</v>
       </c>
       <c r="Q225">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R225">
         <v>15</v>
@@ -12802,7 +12802,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12852,7 +12852,7 @@
         <v>1</v>
       </c>
       <c r="Q227">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R227">
         <v>19</v>
@@ -12902,7 +12902,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -12949,7 +12949,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -12996,7 +12996,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13043,7 +13043,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13090,7 +13090,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13140,7 +13140,7 @@
         <v>1</v>
       </c>
       <c r="Q233">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R233">
         <v>21</v>
@@ -13193,7 +13193,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13243,7 +13243,7 @@
         <v>1</v>
       </c>
       <c r="Q235">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R235">
         <v>17</v>
@@ -13296,7 +13296,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13346,7 +13346,7 @@
         <v>1</v>
       </c>
       <c r="Q237">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R237">
         <v>23</v>
@@ -13396,7 +13396,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13446,7 +13446,7 @@
         <v>1</v>
       </c>
       <c r="Q239">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R239">
         <v>11</v>
@@ -13496,7 +13496,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13543,7 +13543,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13590,7 +13590,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13637,7 +13637,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13684,7 +13684,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13731,7 +13731,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13781,7 +13781,7 @@
         <v>1</v>
       </c>
       <c r="Q246">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R246">
         <v>2</v>
@@ -13837,7 +13837,7 @@
         <v>1</v>
       </c>
       <c r="Q247">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R247">
         <v>1</v>
@@ -13881,10 +13881,10 @@
         <v>1</v>
       </c>
       <c r="P248" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q248">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -13931,7 +13931,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -13978,7 +13978,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14025,7 +14025,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14072,7 +14072,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14113,10 +14113,10 @@
         <v>1</v>
       </c>
       <c r="P253" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q253">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14163,7 +14163,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14210,7 +14210,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14260,7 +14260,7 @@
         <v>1</v>
       </c>
       <c r="Q256">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R256">
         <v>22</v>
@@ -14313,7 +14313,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14363,7 +14363,7 @@
         <v>1</v>
       </c>
       <c r="Q258">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R258">
         <v>10</v>
@@ -14416,7 +14416,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14463,7 +14463,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14510,7 +14510,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14557,7 +14557,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14607,7 +14607,7 @@
         <v>1</v>
       </c>
       <c r="Q263">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R263">
         <v>16</v>
@@ -14660,7 +14660,7 @@
         <v>1</v>
       </c>
       <c r="Q264">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R264">
         <v>26</v>
@@ -14713,7 +14713,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14763,7 +14763,7 @@
         <v>1</v>
       </c>
       <c r="Q266">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R266">
         <v>18</v>
@@ -14813,7 +14813,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14863,7 +14863,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14913,7 +14913,7 @@
         <v>1</v>
       </c>
       <c r="Q269">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R269">
         <v>24</v>
@@ -14966,7 +14966,7 @@
         <v>1</v>
       </c>
       <c r="Q270">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R270">
         <v>19</v>
@@ -15019,7 +15019,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15066,7 +15066,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15116,7 +15116,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15163,7 +15163,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15213,7 +15213,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15263,7 +15263,7 @@
         <v>1</v>
       </c>
       <c r="Q276">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R276">
         <v>16</v>
@@ -15316,7 +15316,7 @@
         <v>1</v>
       </c>
       <c r="Q277">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R277">
         <v>16</v>
@@ -15369,7 +15369,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15419,7 +15419,7 @@
         <v>1</v>
       </c>
       <c r="Q279">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R279">
         <v>12</v>
@@ -15472,7 +15472,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15519,7 +15519,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15566,7 +15566,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15613,7 +15613,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15660,7 +15660,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15710,7 +15710,7 @@
         <v>1</v>
       </c>
       <c r="Q285">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R285">
         <v>3</v>
@@ -15763,7 +15763,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15810,7 +15810,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15857,7 +15857,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15907,7 +15907,7 @@
         <v>1</v>
       </c>
       <c r="Q289">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R289">
         <v>16</v>
@@ -15957,7 +15957,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16004,7 +16004,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16051,7 +16051,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16098,7 +16098,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16148,7 +16148,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16198,7 +16198,7 @@
         <v>1</v>
       </c>
       <c r="Q295">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R295">
         <v>14</v>
@@ -16248,7 +16248,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16295,7 +16295,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16345,7 +16345,7 @@
         <v>1</v>
       </c>
       <c r="Q298">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R298">
         <v>0</v>
@@ -16398,7 +16398,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16445,7 +16445,7 @@
         <v>1</v>
       </c>
       <c r="Q300">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R300">
         <v>24</v>
@@ -16495,7 +16495,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16542,7 +16542,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16589,7 +16589,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16636,7 +16636,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16683,7 +16683,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16730,7 +16730,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16777,7 +16777,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16827,7 +16827,7 @@
         <v>1</v>
       </c>
       <c r="Q308">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R308">
         <v>23</v>
@@ -16880,7 +16880,7 @@
         <v>1</v>
       </c>
       <c r="Q309">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R309">
         <v>19</v>
@@ -16933,7 +16933,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -16983,7 +16983,7 @@
         <v>1</v>
       </c>
       <c r="Q311">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R311">
         <v>16</v>
@@ -17033,7 +17033,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17080,7 +17080,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17130,7 +17130,7 @@
         <v>1</v>
       </c>
       <c r="Q314">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R314">
         <v>40</v>
@@ -17180,7 +17180,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17227,7 +17227,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17274,7 +17274,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17321,7 +17321,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17368,7 +17368,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17418,7 +17418,7 @@
         <v>1</v>
       </c>
       <c r="Q320">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R320">
         <v>23</v>
@@ -17465,7 +17465,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17515,7 +17515,7 @@
         <v>1</v>
       </c>
       <c r="Q322">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R322">
         <v>23</v>
@@ -17568,7 +17568,7 @@
         <v>1</v>
       </c>
       <c r="Q323">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R323">
         <v>26</v>
@@ -17621,7 +17621,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17671,7 +17671,7 @@
         <v>1</v>
       </c>
       <c r="Q325">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R325">
         <v>10</v>
@@ -17724,7 +17724,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17774,7 +17774,7 @@
         <v>1</v>
       </c>
       <c r="Q327">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R327">
         <v>6</v>
@@ -17827,7 +17827,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17877,7 +17877,7 @@
         <v>1</v>
       </c>
       <c r="Q329">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R329">
         <v>11</v>
@@ -17927,7 +17927,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -17977,7 +17977,7 @@
         <v>1</v>
       </c>
       <c r="Q331">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R331">
         <v>4</v>
@@ -18027,7 +18027,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18077,7 +18077,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18124,7 +18124,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18171,7 +18171,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18221,7 +18221,7 @@
         <v>1</v>
       </c>
       <c r="Q336">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R336">
         <v>14</v>
@@ -18274,7 +18274,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18324,7 +18324,7 @@
         <v>1</v>
       </c>
       <c r="Q338">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R338">
         <v>19</v>
@@ -18374,7 +18374,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18421,7 +18421,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18468,7 +18468,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18515,7 +18515,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18562,7 +18562,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18609,7 +18609,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18656,7 +18656,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18706,7 +18706,7 @@
         <v>1</v>
       </c>
       <c r="Q346">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R346">
         <v>6</v>
@@ -18756,7 +18756,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18803,7 +18803,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18850,7 +18850,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18897,7 +18897,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -18947,7 +18947,7 @@
         <v>1</v>
       </c>
       <c r="Q351">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R351">
         <v>18</v>
@@ -19000,7 +19000,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19050,7 +19050,7 @@
         <v>1</v>
       </c>
       <c r="Q353">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R353">
         <v>14</v>
@@ -19100,7 +19100,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19150,7 +19150,7 @@
         <v>1</v>
       </c>
       <c r="Q355">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R355">
         <v>25</v>
@@ -19200,7 +19200,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19250,7 +19250,7 @@
         <v>1</v>
       </c>
       <c r="Q357">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R357">
         <v>19</v>
@@ -19303,7 +19303,7 @@
         <v>1</v>
       </c>
       <c r="Q358">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R358">
         <v>24</v>
@@ -19356,7 +19356,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19406,7 +19406,7 @@
         <v>1</v>
       </c>
       <c r="Q360">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R360">
         <v>17</v>
@@ -19462,7 +19462,7 @@
         <v>1</v>
       </c>
       <c r="Q361">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R361">
         <v>3</v>
@@ -19506,10 +19506,10 @@
         <v>1</v>
       </c>
       <c r="P362" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q362">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19556,7 +19556,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19603,7 +19603,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19644,10 +19644,10 @@
         <v>1</v>
       </c>
       <c r="P365" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q365">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19697,7 +19697,7 @@
         <v>1</v>
       </c>
       <c r="Q366">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="R366">
         <v>13</v>
@@ -19747,7 +19747,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19797,7 +19797,7 @@
         <v>1</v>
       </c>
       <c r="Q368">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="R368">
         <v>24</v>
@@ -19847,7 +19847,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19897,7 +19897,7 @@
         <v>1</v>
       </c>
       <c r="Q370">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="R370">
         <v>29</v>
@@ -19950,7 +19950,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20000,7 +20000,7 @@
         <v>1</v>
       </c>
       <c r="Q372">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="R372">
         <v>6</v>
@@ -20050,7 +20050,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20094,7 +20094,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20141,7 +20141,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20188,7 +20188,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20235,7 +20235,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20282,7 +20282,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20329,7 +20329,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20379,7 +20379,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20429,7 +20429,7 @@
         <v>1</v>
       </c>
       <c r="Q381">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R381">
         <v>27</v>
@@ -20479,7 +20479,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20526,7 +20526,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20573,7 +20573,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20620,7 +20620,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20670,7 +20670,7 @@
         <v>1</v>
       </c>
       <c r="Q386">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R386">
         <v>25</v>
@@ -20723,7 +20723,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20773,7 +20773,7 @@
         <v>1</v>
       </c>
       <c r="Q388">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R388">
         <v>17</v>
@@ -20826,7 +20826,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20873,7 +20873,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20920,7 +20920,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -20967,7 +20967,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21014,7 +21014,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21061,7 +21061,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21108,7 +21108,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21158,7 +21158,7 @@
         <v>1</v>
       </c>
       <c r="Q396">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R396">
         <v>34</v>
@@ -21211,7 +21211,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21258,7 +21258,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21308,7 +21308,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21358,7 +21358,7 @@
         <v>1</v>
       </c>
       <c r="Q400">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R400">
         <v>26</v>
@@ -21408,7 +21408,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21452,7 +21452,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21499,7 +21499,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21546,7 +21546,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21593,7 +21593,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21640,7 +21640,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21690,7 +21690,7 @@
         <v>1</v>
       </c>
       <c r="Q407">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R407">
         <v>30</v>
@@ -21740,7 +21740,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21790,7 +21790,7 @@
         <v>1</v>
       </c>
       <c r="Q409">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R409">
         <v>20</v>
@@ -21843,7 +21843,7 @@
         <v>1</v>
       </c>
       <c r="Q410">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R410">
         <v>20</v>
@@ -21893,7 +21893,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -21940,7 +21940,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -21987,7 +21987,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22037,7 +22037,7 @@
         <v>1</v>
       </c>
       <c r="Q414">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R414">
         <v>23</v>
@@ -22090,7 +22090,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22140,7 +22140,7 @@
         <v>1</v>
       </c>
       <c r="Q416">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R416">
         <v>15</v>
@@ -22193,7 +22193,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22243,7 +22243,7 @@
         <v>1</v>
       </c>
       <c r="Q418">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R418">
         <v>24</v>
@@ -22293,7 +22293,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22343,7 +22343,7 @@
         <v>1</v>
       </c>
       <c r="Q420">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R420">
         <v>26</v>
@@ -22396,7 +22396,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22443,7 +22443,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22490,7 +22490,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22537,7 +22537,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22584,7 +22584,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22634,7 +22634,7 @@
         <v>1</v>
       </c>
       <c r="Q426">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R426">
         <v>17</v>
@@ -22687,7 +22687,7 @@
         <v>1</v>
       </c>
       <c r="Q427">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R427">
         <v>21</v>
@@ -22740,7 +22740,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22790,7 +22790,7 @@
         <v>1</v>
       </c>
       <c r="Q429">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R429">
         <v>10</v>
@@ -22843,7 +22843,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22893,7 +22893,7 @@
         <v>1</v>
       </c>
       <c r="Q431">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R431">
         <v>20</v>
@@ -22946,7 +22946,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -22993,7 +22993,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23043,7 +23043,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23093,7 +23093,7 @@
         <v>1</v>
       </c>
       <c r="Q435">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R435">
         <v>8</v>
@@ -23140,7 +23140,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23190,7 +23190,7 @@
         <v>1</v>
       </c>
       <c r="Q437">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R437">
         <v>20</v>
@@ -23240,7 +23240,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23290,7 +23290,7 @@
         <v>1</v>
       </c>
       <c r="Q439">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R439">
         <v>19</v>
@@ -23343,7 +23343,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23393,7 +23393,7 @@
         <v>1</v>
       </c>
       <c r="Q441">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R441">
         <v>22</v>
@@ -23440,7 +23440,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23490,7 +23490,7 @@
         <v>1</v>
       </c>
       <c r="Q443">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R443">
         <v>10</v>
@@ -23540,7 +23540,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23587,7 +23587,7 @@
         <v>1</v>
       </c>
       <c r="Q445">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R445">
         <v>7</v>
@@ -23637,7 +23637,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23684,7 +23684,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23731,7 +23731,7 @@
         <v>1</v>
       </c>
       <c r="Q448">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R448">
         <v>17</v>
@@ -23781,7 +23781,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23828,7 +23828,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23875,7 +23875,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -23922,7 +23922,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -23972,7 +23972,7 @@
         <v>1</v>
       </c>
       <c r="Q453">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R453">
         <v>24</v>
@@ -24022,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24072,7 +24072,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24119,7 +24119,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24166,7 +24166,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24213,7 +24213,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24260,7 +24260,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24307,7 +24307,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24354,7 +24354,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24404,7 +24404,7 @@
         <v>1</v>
       </c>
       <c r="Q462">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R462">
         <v>17</v>
@@ -24454,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24501,7 +24501,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24548,7 +24548,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24595,7 +24595,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24642,7 +24642,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24689,7 +24689,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24736,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24783,7 +24783,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24830,7 +24830,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -24880,7 +24880,7 @@
         <v>1</v>
       </c>
       <c r="Q472">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R472">
         <v>9</v>
@@ -24930,7 +24930,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -24980,7 +24980,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25030,7 +25030,7 @@
         <v>1</v>
       </c>
       <c r="Q475">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R475">
         <v>8</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25124,7 +25124,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25218,7 +25218,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25265,7 +25265,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25406,7 +25406,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25456,7 +25456,7 @@
         <v>1</v>
       </c>
       <c r="Q484">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R484">
         <v>2</v>
@@ -25506,7 +25506,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25556,7 +25556,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25606,7 +25606,7 @@
         <v>1</v>
       </c>
       <c r="Q487">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R487">
         <v>3</v>
@@ -25650,10 +25650,10 @@
         <v>1</v>
       </c>
       <c r="P488" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q488">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -25694,7 +25694,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
